--- a/biology/Médecine/Jean-Henri-Nicolas_Bouillet/Jean-Henri-Nicolas_Bouillet.xlsx
+++ b/biology/Médecine/Jean-Henri-Nicolas_Bouillet/Jean-Henri-Nicolas_Bouillet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Henri-Nicolas Bouillet, né en décembre 1729 à Béziers[1],[2] et mort dans cette même ville le 22 janvier 1790, est un médecin, encyclopédiste et homme politique français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Henri-Nicolas Bouillet, né en décembre 1729 à Béziers, et mort dans cette même ville le 22 janvier 1790, est un médecin, encyclopédiste et homme politique français.
 </t>
         </is>
       </c>
@@ -513,23 +525,168 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine familiale
-Il est le fils de Jean Bouillet, également médecin, et de Catherine de Margals.
-Activité
-Il est docteur de la faculté de Montpellier, mais il exerce la médecine dans sa ville natale.
-Travaux
-« Faculté », dans Encyclopédie ou Dictionnaire raisonné des sciences, des arts et des métiers, 1751, t. 6, p. 361-371 (sur Wikisource) ;
+          <t>Origine familiale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est le fils de Jean Bouillet, également médecin, et de Catherine de Margals.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jean-Henri-Nicolas_Bouillet</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Henri-Nicolas_Bouillet</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Activité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est docteur de la faculté de Montpellier, mais il exerce la médecine dans sa ville natale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Henri-Nicolas_Bouillet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Henri-Nicolas_Bouillet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Faculté », dans Encyclopédie ou Dictionnaire raisonné des sciences, des arts et des métiers, 1751, t. 6, p. 361-371 (sur Wikisource) ;
 Mémoire sur les pleuro-péripneumonies épidémiques de Béziers, lu à la séance publique de l’Académie des sciences et belles-lettres de Bésiers le 26 octobre 1758, Béziers, 1759, in-4° ;
 (en collaboration avec son père) Observations sur l'anasarque, les hydropisies de poitrine, du péricarde, etc., avec des réflexions sur ces maladies sur Google Livres, Béziers, François Barbut, 1765, 154 p.  — Une anasarque est un syndrome œdémateux généralisé.
 Mémoire sur l’hydropisie de poitrine et sur les hydropisies du péricarde, du médiastin et de la plèvre, Béziers, 1788, in-4°.
 On lui doit aussi plusieurs dissertations et des observations astronomiques insérées dans le recueil des savants étrangers de l’Académie des sciences (t. 5, 1760).[réf. nécessaire]
-Il contribue au sixième volume de l’Encyclopédie de Diderot[3].
-Il est membre de l'académie de Béziers[2],[4], fondée par son père en 1723 avec Jean-Jacques Dortous de Mairan[5].
-Maxime Laignel-Lavastine l'appelle « épidémiologiste et précurseur de la médecine sociale[3] ».
-Mandat électif
-Il est consul-maire de Béziers de 1787 à 1790[6].
-Vie privée
-Il épouse le 25 janvier 1774 à Béziers Paule Raymonde de Pradines, et ont plusieurs enfants.
+Il contribue au sixième volume de l’Encyclopédie de Diderot.
+Il est membre de l'académie de Béziers fondée par son père en 1723 avec Jean-Jacques Dortous de Mairan.
+Maxime Laignel-Lavastine l'appelle « épidémiologiste et précurseur de la médecine sociale ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Henri-Nicolas_Bouillet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Henri-Nicolas_Bouillet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mandat électif</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est consul-maire de Béziers de 1787 à 1790.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Henri-Nicolas_Bouillet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Henri-Nicolas_Bouillet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il épouse le 25 janvier 1774 à Béziers Paule Raymonde de Pradines, et ont plusieurs enfants.
 </t>
         </is>
       </c>
